--- a/biology/Zoologie/Aglyptodactylus/Aglyptodactylus.xlsx
+++ b/biology/Zoologie/Aglyptodactylus/Aglyptodactylus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aglyptodactylus est un genre d'amphibiens de la famille des Mantellidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aglyptodactylus est un genre d'amphibiens de la famille des Mantellidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 3 espèces de ce genre sont endémiques de Madagascar[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 3 espèces de ce genre sont endémiques de Madagascar.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (16 septembre 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (16 septembre 2015) :
 Aglyptodactylus australis Köhler, Glaw, Pabijan &amp; Vences, 2015
 Aglyptodactylus chorus Köhler, Glaw, Pabijan &amp; Vences, 2015
 Aglyptodactylus inguinalis Günther, 1877
@@ -578,9 +594,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom[3] de ce genre, Aglyptodactylus, du préfixe grec, α, a, « absence, non », γλυπτός, gluptós, « gravé », δάκτυλος, daktylos, « doigt », a été choisi en référence aux extrémités digitales de cette espèce qui ne sont qu'incomplètement rainurées, et ce en comparaison au genre apparenté Mantidactylus.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de ce genre, Aglyptodactylus, du préfixe grec, α, a, « absence, non », γλυπτός, gluptós, « gravé », δάκτυλος, daktylos, « doigt », a été choisi en référence aux extrémités digitales de cette espèce qui ne sont qu'incomplètement rainurées, et ce en comparaison au genre apparenté Mantidactylus.
 </t>
         </is>
       </c>
@@ -609,7 +627,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boulenger, 1919 "1918" : On the Madagascar frogs of the genus Mantidactylus. Proceedings of the Zoological Society of London, vol. 1918, p. 257-261 (texte intégral).</t>
         </is>
